--- a/member.xlsx
+++ b/member.xlsx
@@ -19,7 +19,7 @@
     <definedName name="Age">Sheet1!$B:$B</definedName>
     <definedName name="Name">Sheet1!$A:$A</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Id</t>
   </si>
@@ -44,13 +44,32 @@
   </si>
   <si>
     <t>CoffeeCount</t>
+  </si>
+  <si>
+    <t>CHulbul</t>
+  </si>
+  <si>
+    <t>9842052424</t>
+  </si>
+  <si>
+    <t>Lazy shit</t>
+  </si>
+  <si>
+    <t>983244324</t>
+  </si>
+  <si>
+    <t>Checking</t>
+  </si>
+  <si>
+    <t>12345</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -374,25 +393,77 @@
     <col min="3" max="3" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/member.xlsx
+++ b/member.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work-place\flutter apps\projects\sharp\BisleriumCafeBackend\BisleriumCafeBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4D1021-497F-418F-9053-D84AFC4F1F37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B6ECB0-1938-4263-9369-50C0A6528B68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Id</t>
   </si>
@@ -62,6 +62,18 @@
   </si>
   <si>
     <t>12345</t>
+  </si>
+  <si>
+    <t>holy</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>checkign price</t>
+  </si>
+  <si>
+    <t>69</t>
   </si>
 </sst>
 </file>
@@ -380,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -438,7 +450,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="0">
         <v>0</v>
@@ -455,9 +467,43 @@
         <v>10</v>
       </c>
       <c r="D4" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0">
         <v>0</v>
       </c>
     </row>
